--- a/null.xlsx
+++ b/null.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
   <si>
     <t>Робота комбайнів</t>
   </si>
@@ -33,31 +33,28 @@
     <t>ПІБ</t>
   </si>
   <si>
-    <t xml:space="preserve"> Case-210_Puma_15122СВ "
-</t>
+    <t xml:space="preserve"> Case210 </t>
   </si>
   <si>
     <t>Бункера   Шибиринівка</t>
   </si>
   <si>
-    <t>15122.0</t>
+    <t>15122</t>
   </si>
   <si>
     <t>бункер</t>
   </si>
   <si>
+    <t>Мурашко</t>
+  </si>
+  <si>
+    <t>15121</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Case-210_Puma_15121СВ"
-</t>
-  </si>
-  <si>
-    <t>15121.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Deere-S6901_09039BI"
-</t>
+    <t>John Deere S6901</t>
   </si>
   <si>
     <t>Комбайни  Шибиринівка</t>
@@ -72,8 +69,7 @@
     <t>Півень</t>
   </si>
   <si>
-    <t xml:space="preserve">John Deere-S9880_11270CB"
-</t>
+    <t>John Deere S9880</t>
   </si>
   <si>
     <t>11270</t>
@@ -82,10 +78,6 @@
     <t>Коробко</t>
   </si>
   <si>
-    <t xml:space="preserve">John Deere-S9880_11271CB"
-</t>
-  </si>
-  <si>
     <t>Комбайни  Халявин, Шибиринівка</t>
   </si>
   <si>
@@ -95,28 +87,16 @@
     <t>Кордик</t>
   </si>
   <si>
-    <t xml:space="preserve">John Deere-S9880_11273CB"
-</t>
-  </si>
-  <si>
     <t>11273</t>
   </si>
   <si>
     <t>Василенко</t>
   </si>
   <si>
-    <t xml:space="preserve">John Deere-S9880_11269CB"
-</t>
-  </si>
-  <si>
     <t>11269</t>
   </si>
   <si>
     <t>Скляров О</t>
-  </si>
-  <si>
-    <t xml:space="preserve">John Deere-S9880_11272CB"
-</t>
   </si>
   <si>
     <t>11272</t>
@@ -135,24 +115,22 @@
     <t>-</t>
   </si>
   <si>
-    <t xml:space="preserve">Палессе 16318СВ"
-</t>
+    <t>Палессе</t>
   </si>
   <si>
     <t>Комбайни</t>
   </si>
   <si>
-    <t>16319.0</t>
+    <t>16319</t>
   </si>
   <si>
     <t>Бублик</t>
   </si>
   <si>
-    <t xml:space="preserve">Нью-Холонд Новий "
-</t>
-  </si>
-  <si>
-    <t>61876.0</t>
+    <t>New Holland</t>
+  </si>
+  <si>
+    <t>61876</t>
   </si>
   <si>
     <t>Іллюшко Л.С</t>
@@ -748,7 +726,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="508">
+  <cellXfs count="497">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true">
       <alignment horizontal="center"/>
@@ -796,17 +774,6 @@
       <alignment horizontal="general" indent="0" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="45" xfId="0" applyFill="true" applyBorder="true"/>
@@ -1715,22 +1682,22 @@
       <c r="O5" s="17"/>
       <c r="P5" s="18"/>
       <c r="Q5" s="19"/>
-      <c r="R5" s="436"/>
-      <c r="S5" s="437"/>
+      <c r="R5" s="425"/>
+      <c r="S5" s="426"/>
       <c r="T5" s="22"/>
       <c r="U5" s="23"/>
       <c r="V5" s="24"/>
       <c r="W5" s="25"/>
-      <c r="X5" s="438"/>
-      <c r="Y5" s="439"/>
+      <c r="X5" s="427"/>
+      <c r="Y5" s="428"/>
       <c r="Z5" s="28"/>
-      <c r="AA5" s="440"/>
-      <c r="AB5" s="441"/>
+      <c r="AA5" s="429"/>
+      <c r="AB5" s="430"/>
       <c r="AC5" s="31"/>
       <c r="AD5" s="32"/>
       <c r="AE5" s="33"/>
-      <c r="AF5" s="442"/>
-      <c r="AG5" s="443"/>
+      <c r="AF5" s="431"/>
+      <c r="AG5" s="432"/>
       <c r="AH5" s="36"/>
       <c r="AI5" s="37"/>
       <c r="AJ5" s="38"/>
@@ -1745,13 +1712,13 @@
       <c r="AS5" s="47"/>
       <c r="AT5" s="48"/>
       <c r="AU5" s="49"/>
-      <c r="AV5" s="444"/>
-      <c r="AW5" s="445"/>
+      <c r="AV5" s="433"/>
+      <c r="AW5" s="434"/>
       <c r="AX5" s="52"/>
       <c r="AY5" s="53"/>
       <c r="AZ5" s="54"/>
       <c r="BA5" s="55"/>
-      <c r="BB5" s="56"/>
+      <c r="BB5" s="10"/>
       <c r="BC5" s="10"/>
       <c r="BD5" s="10"/>
       <c r="BE5" s="10"/>
@@ -1805,16 +1772,16 @@
         <v>7</v>
       </c>
       <c r="B6" t="s" s="12">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s" s="12">
         <v>11</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>12</v>
       </c>
       <c r="D6" t="s" s="12">
         <v>9</v>
       </c>
       <c r="E6" t="s" s="12">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1824,48 +1791,48 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="446"/>
-      <c r="Y6" s="447"/>
-      <c r="Z6" s="448"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="74"/>
-      <c r="AF6" s="449"/>
-      <c r="AG6" s="450"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="78"/>
-      <c r="AJ6" s="79"/>
-      <c r="AK6" s="80"/>
-      <c r="AL6" s="81"/>
-      <c r="AM6" s="82"/>
-      <c r="AN6" s="451"/>
-      <c r="AO6" s="84"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="86"/>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="88"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="452"/>
-      <c r="AV6" s="453"/>
-      <c r="AW6" s="454"/>
-      <c r="AX6" s="455"/>
-      <c r="AY6" s="94"/>
-      <c r="AZ6" s="95"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="97"/>
-      <c r="BC6" s="98"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="63"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="435"/>
+      <c r="Y6" s="436"/>
+      <c r="Z6" s="437"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="438"/>
+      <c r="AG6" s="439"/>
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="78"/>
+      <c r="AK6" s="79"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="81"/>
+      <c r="AN6" s="440"/>
+      <c r="AO6" s="83"/>
+      <c r="AP6" s="84"/>
+      <c r="AQ6" s="85"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="441"/>
+      <c r="AV6" s="442"/>
+      <c r="AW6" s="443"/>
+      <c r="AX6" s="444"/>
+      <c r="AY6" s="93"/>
+      <c r="AZ6" s="94"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="10"/>
       <c r="BD6" s="10"/>
       <c r="BE6" s="10"/>
       <c r="BF6" s="10"/>
@@ -1936,51 +1903,51 @@
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="101"/>
-      <c r="P7" s="102"/>
-      <c r="Q7" s="103"/>
-      <c r="R7" s="104"/>
-      <c r="S7" s="456"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="110"/>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="457"/>
-      <c r="AA7" s="458"/>
-      <c r="AB7" s="114"/>
-      <c r="AC7" s="459"/>
-      <c r="AD7" s="460"/>
-      <c r="AE7" s="461"/>
-      <c r="AF7" s="118"/>
-      <c r="AG7" s="119"/>
-      <c r="AH7" s="120"/>
-      <c r="AI7" s="121"/>
-      <c r="AJ7" s="462"/>
-      <c r="AK7" s="463"/>
-      <c r="AL7" s="464"/>
-      <c r="AM7" s="465"/>
-      <c r="AN7" s="466"/>
-      <c r="AO7" s="127"/>
-      <c r="AP7" s="128"/>
-      <c r="AQ7" s="129"/>
-      <c r="AR7" s="130"/>
-      <c r="AS7" s="131"/>
-      <c r="AT7" s="132"/>
-      <c r="AU7" s="133"/>
-      <c r="AV7" s="134"/>
-      <c r="AW7" s="467"/>
-      <c r="AX7" s="468"/>
-      <c r="AY7" s="137"/>
-      <c r="AZ7" s="138"/>
-      <c r="BA7" s="139"/>
-      <c r="BB7" s="140"/>
-      <c r="BC7" s="141"/>
-      <c r="BD7" s="142"/>
-      <c r="BE7" s="143"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="99"/>
+      <c r="P7" s="100"/>
+      <c r="Q7" s="101"/>
+      <c r="R7" s="102"/>
+      <c r="S7" s="445"/>
+      <c r="T7" s="104"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="109"/>
+      <c r="Z7" s="446"/>
+      <c r="AA7" s="447"/>
+      <c r="AB7" s="112"/>
+      <c r="AC7" s="448"/>
+      <c r="AD7" s="449"/>
+      <c r="AE7" s="450"/>
+      <c r="AF7" s="116"/>
+      <c r="AG7" s="117"/>
+      <c r="AH7" s="118"/>
+      <c r="AI7" s="119"/>
+      <c r="AJ7" s="451"/>
+      <c r="AK7" s="452"/>
+      <c r="AL7" s="453"/>
+      <c r="AM7" s="454"/>
+      <c r="AN7" s="455"/>
+      <c r="AO7" s="125"/>
+      <c r="AP7" s="126"/>
+      <c r="AQ7" s="127"/>
+      <c r="AR7" s="128"/>
+      <c r="AS7" s="129"/>
+      <c r="AT7" s="130"/>
+      <c r="AU7" s="131"/>
+      <c r="AV7" s="132"/>
+      <c r="AW7" s="456"/>
+      <c r="AX7" s="457"/>
+      <c r="AY7" s="135"/>
+      <c r="AZ7" s="136"/>
+      <c r="BA7" s="137"/>
+      <c r="BB7" s="138"/>
+      <c r="BC7" s="139"/>
+      <c r="BD7" s="140"/>
+      <c r="BE7" s="10"/>
       <c r="BF7" s="10"/>
       <c r="BG7" s="10"/>
       <c r="BH7" s="10"/>
@@ -2048,51 +2015,51 @@
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="144"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="147"/>
-      <c r="P8" s="148"/>
-      <c r="Q8" s="149"/>
-      <c r="R8" s="150"/>
-      <c r="S8" s="151"/>
-      <c r="T8" s="152"/>
-      <c r="U8" s="153"/>
-      <c r="V8" s="154"/>
-      <c r="W8" s="155"/>
-      <c r="X8" s="156"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="158"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="160"/>
-      <c r="AC8" s="161"/>
-      <c r="AD8" s="162"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="469"/>
-      <c r="AG8" s="470"/>
-      <c r="AH8" s="166"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="168"/>
-      <c r="AK8" s="169"/>
-      <c r="AL8" s="170"/>
-      <c r="AM8" s="171"/>
-      <c r="AN8" s="172"/>
-      <c r="AO8" s="173"/>
-      <c r="AP8" s="174"/>
-      <c r="AQ8" s="175"/>
-      <c r="AR8" s="176"/>
-      <c r="AS8" s="177"/>
-      <c r="AT8" s="178"/>
-      <c r="AU8" s="179"/>
-      <c r="AV8" s="180"/>
-      <c r="AW8" s="471"/>
-      <c r="AX8" s="182"/>
-      <c r="AY8" s="183"/>
-      <c r="AZ8" s="184"/>
-      <c r="BA8" s="185"/>
-      <c r="BB8" s="186"/>
-      <c r="BC8" s="187"/>
-      <c r="BD8" s="188"/>
+      <c r="L8" s="141"/>
+      <c r="M8" s="142"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="144"/>
+      <c r="P8" s="145"/>
+      <c r="Q8" s="146"/>
+      <c r="R8" s="147"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="150"/>
+      <c r="V8" s="151"/>
+      <c r="W8" s="152"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="154"/>
+      <c r="Z8" s="155"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="157"/>
+      <c r="AC8" s="158"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="160"/>
+      <c r="AF8" s="458"/>
+      <c r="AG8" s="459"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="164"/>
+      <c r="AJ8" s="165"/>
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="167"/>
+      <c r="AM8" s="168"/>
+      <c r="AN8" s="169"/>
+      <c r="AO8" s="170"/>
+      <c r="AP8" s="171"/>
+      <c r="AQ8" s="172"/>
+      <c r="AR8" s="173"/>
+      <c r="AS8" s="174"/>
+      <c r="AT8" s="175"/>
+      <c r="AU8" s="176"/>
+      <c r="AV8" s="177"/>
+      <c r="AW8" s="460"/>
+      <c r="AX8" s="179"/>
+      <c r="AY8" s="180"/>
+      <c r="AZ8" s="181"/>
+      <c r="BA8" s="182"/>
+      <c r="BB8" s="183"/>
+      <c r="BC8" s="184"/>
+      <c r="BD8" s="10"/>
       <c r="BE8" s="10"/>
       <c r="BF8" s="10"/>
       <c r="BG8" s="10"/>
@@ -2141,19 +2108,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="12">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s" s="12">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s" s="12">
         <v>22</v>
-      </c>
-      <c r="B9" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="C9" t="s" s="12">
-        <v>23</v>
       </c>
       <c r="D9" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E9" t="s" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -2161,49 +2128,49 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="L9" s="189"/>
-      <c r="M9" s="190"/>
-      <c r="N9" s="191"/>
-      <c r="O9" s="192"/>
-      <c r="P9" s="472"/>
-      <c r="Q9" s="473"/>
-      <c r="R9" s="474"/>
-      <c r="S9" s="475"/>
-      <c r="T9" s="476"/>
-      <c r="U9" s="198"/>
-      <c r="V9" s="199"/>
-      <c r="W9" s="200"/>
-      <c r="X9" s="201"/>
-      <c r="Y9" s="202"/>
-      <c r="Z9" s="203"/>
-      <c r="AA9" s="204"/>
-      <c r="AB9" s="205"/>
-      <c r="AC9" s="206"/>
-      <c r="AD9" s="207"/>
-      <c r="AE9" s="208"/>
-      <c r="AF9" s="209"/>
-      <c r="AG9" s="210"/>
-      <c r="AH9" s="477"/>
-      <c r="AI9" s="478"/>
-      <c r="AJ9" s="213"/>
-      <c r="AK9" s="214"/>
-      <c r="AL9" s="215"/>
-      <c r="AM9" s="216"/>
-      <c r="AN9" s="217"/>
-      <c r="AO9" s="218"/>
-      <c r="AP9" s="219"/>
-      <c r="AQ9" s="220"/>
-      <c r="AR9" s="221"/>
-      <c r="AS9" s="222"/>
-      <c r="AT9" s="223"/>
-      <c r="AU9" s="224"/>
-      <c r="AV9" s="479"/>
-      <c r="AW9" s="480"/>
-      <c r="AX9" s="481"/>
-      <c r="AY9" s="228"/>
-      <c r="AZ9" s="229"/>
-      <c r="BA9" s="230"/>
-      <c r="BB9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="185"/>
+      <c r="Q9" s="186"/>
+      <c r="R9" s="187"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="190"/>
+      <c r="V9" s="191"/>
+      <c r="W9" s="192"/>
+      <c r="X9" s="193"/>
+      <c r="Y9" s="194"/>
+      <c r="Z9" s="195"/>
+      <c r="AA9" s="461"/>
+      <c r="AB9" s="462"/>
+      <c r="AC9" s="198"/>
+      <c r="AD9" s="199"/>
+      <c r="AE9" s="200"/>
+      <c r="AF9" s="201"/>
+      <c r="AG9" s="202"/>
+      <c r="AH9" s="203"/>
+      <c r="AI9" s="204"/>
+      <c r="AJ9" s="205"/>
+      <c r="AK9" s="206"/>
+      <c r="AL9" s="207"/>
+      <c r="AM9" s="208"/>
+      <c r="AN9" s="209"/>
+      <c r="AO9" s="210"/>
+      <c r="AP9" s="211"/>
+      <c r="AQ9" s="212"/>
+      <c r="AR9" s="213"/>
+      <c r="AS9" s="214"/>
+      <c r="AT9" s="215"/>
+      <c r="AU9" s="216"/>
+      <c r="AV9" s="463"/>
+      <c r="AW9" s="218"/>
+      <c r="AX9" s="219"/>
+      <c r="AY9" s="220"/>
+      <c r="AZ9" s="221"/>
+      <c r="BA9" s="222"/>
+      <c r="BB9" s="223"/>
       <c r="BC9" s="10"/>
       <c r="BD9" s="10"/>
       <c r="BE9" s="10"/>
@@ -2254,72 +2221,72 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s" s="12">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E10" t="s" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="231"/>
-      <c r="L10" s="232"/>
-      <c r="M10" s="233"/>
-      <c r="N10" s="234"/>
-      <c r="O10" s="235"/>
-      <c r="P10" s="236"/>
-      <c r="Q10" s="237"/>
-      <c r="R10" s="238"/>
-      <c r="S10" s="239"/>
-      <c r="T10" s="240"/>
-      <c r="U10" s="241"/>
-      <c r="V10" s="242"/>
-      <c r="W10" s="243"/>
-      <c r="X10" s="244"/>
-      <c r="Y10" s="245"/>
-      <c r="Z10" s="246"/>
-      <c r="AA10" s="247"/>
-      <c r="AB10" s="248"/>
-      <c r="AC10" s="249"/>
-      <c r="AD10" s="250"/>
-      <c r="AE10" s="251"/>
-      <c r="AF10" s="252"/>
-      <c r="AG10" s="253"/>
-      <c r="AH10" s="482"/>
-      <c r="AI10" s="255"/>
-      <c r="AJ10" s="256"/>
-      <c r="AK10" s="257"/>
-      <c r="AL10" s="258"/>
-      <c r="AM10" s="259"/>
-      <c r="AN10" s="260"/>
-      <c r="AO10" s="261"/>
-      <c r="AP10" s="262"/>
-      <c r="AQ10" s="263"/>
-      <c r="AR10" s="264"/>
-      <c r="AS10" s="265"/>
-      <c r="AT10" s="266"/>
-      <c r="AU10" s="267"/>
-      <c r="AV10" s="483"/>
-      <c r="AW10" s="484"/>
-      <c r="AX10" s="485"/>
-      <c r="AY10" s="271"/>
-      <c r="AZ10" s="272"/>
-      <c r="BA10" s="273"/>
-      <c r="BB10" s="274"/>
-      <c r="BC10" s="275"/>
-      <c r="BD10" s="276"/>
-      <c r="BE10" s="277"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="225"/>
+      <c r="N10" s="226"/>
+      <c r="O10" s="227"/>
+      <c r="P10" s="464"/>
+      <c r="Q10" s="465"/>
+      <c r="R10" s="466"/>
+      <c r="S10" s="467"/>
+      <c r="T10" s="468"/>
+      <c r="U10" s="469"/>
+      <c r="V10" s="234"/>
+      <c r="W10" s="235"/>
+      <c r="X10" s="236"/>
+      <c r="Y10" s="237"/>
+      <c r="Z10" s="238"/>
+      <c r="AA10" s="239"/>
+      <c r="AB10" s="470"/>
+      <c r="AC10" s="471"/>
+      <c r="AD10" s="242"/>
+      <c r="AE10" s="243"/>
+      <c r="AF10" s="244"/>
+      <c r="AG10" s="472"/>
+      <c r="AH10" s="246"/>
+      <c r="AI10" s="247"/>
+      <c r="AJ10" s="248"/>
+      <c r="AK10" s="249"/>
+      <c r="AL10" s="250"/>
+      <c r="AM10" s="251"/>
+      <c r="AN10" s="252"/>
+      <c r="AO10" s="253"/>
+      <c r="AP10" s="254"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AW10" s="10"/>
+      <c r="AX10" s="10"/>
+      <c r="AY10" s="10"/>
+      <c r="AZ10" s="10"/>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10"/>
+      <c r="BC10" s="10"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
       <c r="BF10" s="10"/>
       <c r="BG10" s="10"/>
       <c r="BH10" s="10"/>
@@ -2370,16 +2337,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="12">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s" s="12">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E11" t="s" s="12">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -2387,50 +2354,50 @@
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="278"/>
-      <c r="Q11" s="279"/>
-      <c r="R11" s="280"/>
-      <c r="S11" s="281"/>
-      <c r="T11" s="282"/>
-      <c r="U11" s="283"/>
-      <c r="V11" s="284"/>
-      <c r="W11" s="285"/>
-      <c r="X11" s="286"/>
-      <c r="Y11" s="287"/>
-      <c r="Z11" s="288"/>
-      <c r="AA11" s="486"/>
-      <c r="AB11" s="487"/>
-      <c r="AC11" s="291"/>
-      <c r="AD11" s="292"/>
-      <c r="AE11" s="293"/>
-      <c r="AF11" s="294"/>
-      <c r="AG11" s="295"/>
-      <c r="AH11" s="296"/>
-      <c r="AI11" s="297"/>
-      <c r="AJ11" s="298"/>
-      <c r="AK11" s="299"/>
-      <c r="AL11" s="300"/>
-      <c r="AM11" s="301"/>
-      <c r="AN11" s="302"/>
-      <c r="AO11" s="303"/>
-      <c r="AP11" s="304"/>
-      <c r="AQ11" s="305"/>
-      <c r="AR11" s="306"/>
-      <c r="AS11" s="307"/>
-      <c r="AT11" s="308"/>
-      <c r="AU11" s="309"/>
-      <c r="AV11" s="488"/>
-      <c r="AW11" s="311"/>
-      <c r="AX11" s="312"/>
-      <c r="AY11" s="313"/>
-      <c r="AZ11" s="314"/>
-      <c r="BA11" s="315"/>
-      <c r="BB11" s="316"/>
-      <c r="BC11" s="317"/>
+      <c r="L11" s="255"/>
+      <c r="M11" s="256"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="473"/>
+      <c r="Q11" s="474"/>
+      <c r="R11" s="475"/>
+      <c r="S11" s="476"/>
+      <c r="T11" s="477"/>
+      <c r="U11" s="264"/>
+      <c r="V11" s="265"/>
+      <c r="W11" s="266"/>
+      <c r="X11" s="267"/>
+      <c r="Y11" s="268"/>
+      <c r="Z11" s="269"/>
+      <c r="AA11" s="270"/>
+      <c r="AB11" s="271"/>
+      <c r="AC11" s="272"/>
+      <c r="AD11" s="273"/>
+      <c r="AE11" s="274"/>
+      <c r="AF11" s="275"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="478"/>
+      <c r="AI11" s="479"/>
+      <c r="AJ11" s="279"/>
+      <c r="AK11" s="280"/>
+      <c r="AL11" s="281"/>
+      <c r="AM11" s="282"/>
+      <c r="AN11" s="283"/>
+      <c r="AO11" s="284"/>
+      <c r="AP11" s="285"/>
+      <c r="AQ11" s="286"/>
+      <c r="AR11" s="287"/>
+      <c r="AS11" s="288"/>
+      <c r="AT11" s="289"/>
+      <c r="AU11" s="290"/>
+      <c r="AV11" s="480"/>
+      <c r="AW11" s="481"/>
+      <c r="AX11" s="482"/>
+      <c r="AY11" s="294"/>
+      <c r="AZ11" s="295"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10"/>
       <c r="BD11" s="10"/>
       <c r="BE11" s="10"/>
       <c r="BF11" s="10"/>
@@ -2483,68 +2450,68 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="12">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s" s="12">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E12" t="s" s="12">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="318"/>
-      <c r="M12" s="319"/>
-      <c r="N12" s="320"/>
-      <c r="O12" s="321"/>
-      <c r="P12" s="489"/>
-      <c r="Q12" s="490"/>
-      <c r="R12" s="491"/>
-      <c r="S12" s="492"/>
-      <c r="T12" s="493"/>
-      <c r="U12" s="494"/>
-      <c r="V12" s="328"/>
-      <c r="W12" s="329"/>
-      <c r="X12" s="330"/>
-      <c r="Y12" s="331"/>
-      <c r="Z12" s="332"/>
-      <c r="AA12" s="333"/>
-      <c r="AB12" s="495"/>
-      <c r="AC12" s="496"/>
-      <c r="AD12" s="336"/>
-      <c r="AE12" s="337"/>
-      <c r="AF12" s="338"/>
-      <c r="AG12" s="497"/>
-      <c r="AH12" s="340"/>
-      <c r="AI12" s="341"/>
-      <c r="AJ12" s="342"/>
-      <c r="AK12" s="343"/>
-      <c r="AL12" s="344"/>
-      <c r="AM12" s="345"/>
-      <c r="AN12" s="346"/>
-      <c r="AO12" s="347"/>
-      <c r="AP12" s="348"/>
-      <c r="AQ12" s="349"/>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10"/>
-      <c r="AX12" s="10"/>
-      <c r="AY12" s="10"/>
-      <c r="AZ12" s="10"/>
-      <c r="BA12" s="10"/>
-      <c r="BB12" s="10"/>
-      <c r="BC12" s="10"/>
-      <c r="BD12" s="10"/>
+      <c r="K12" s="296"/>
+      <c r="L12" s="297"/>
+      <c r="M12" s="298"/>
+      <c r="N12" s="299"/>
+      <c r="O12" s="300"/>
+      <c r="P12" s="301"/>
+      <c r="Q12" s="302"/>
+      <c r="R12" s="303"/>
+      <c r="S12" s="304"/>
+      <c r="T12" s="305"/>
+      <c r="U12" s="306"/>
+      <c r="V12" s="307"/>
+      <c r="W12" s="308"/>
+      <c r="X12" s="309"/>
+      <c r="Y12" s="310"/>
+      <c r="Z12" s="311"/>
+      <c r="AA12" s="312"/>
+      <c r="AB12" s="313"/>
+      <c r="AC12" s="314"/>
+      <c r="AD12" s="315"/>
+      <c r="AE12" s="316"/>
+      <c r="AF12" s="317"/>
+      <c r="AG12" s="318"/>
+      <c r="AH12" s="483"/>
+      <c r="AI12" s="320"/>
+      <c r="AJ12" s="321"/>
+      <c r="AK12" s="322"/>
+      <c r="AL12" s="323"/>
+      <c r="AM12" s="324"/>
+      <c r="AN12" s="325"/>
+      <c r="AO12" s="326"/>
+      <c r="AP12" s="327"/>
+      <c r="AQ12" s="328"/>
+      <c r="AR12" s="329"/>
+      <c r="AS12" s="330"/>
+      <c r="AT12" s="331"/>
+      <c r="AU12" s="332"/>
+      <c r="AV12" s="484"/>
+      <c r="AW12" s="485"/>
+      <c r="AX12" s="486"/>
+      <c r="AY12" s="336"/>
+      <c r="AZ12" s="337"/>
+      <c r="BA12" s="338"/>
+      <c r="BB12" s="339"/>
+      <c r="BC12" s="340"/>
+      <c r="BD12" s="341"/>
       <c r="BE12" s="10"/>
       <c r="BF12" s="10"/>
       <c r="BG12" s="10"/>
@@ -2593,19 +2560,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="12">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s" s="12">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s" s="12">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -2619,45 +2586,45 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
-      <c r="R13" s="350"/>
-      <c r="S13" s="351"/>
-      <c r="T13" s="352"/>
-      <c r="U13" s="353"/>
-      <c r="V13" s="354"/>
-      <c r="W13" s="355"/>
-      <c r="X13" s="356"/>
-      <c r="Y13" s="498"/>
-      <c r="Z13" s="499"/>
-      <c r="AA13" s="359"/>
-      <c r="AB13" s="360"/>
-      <c r="AC13" s="361"/>
-      <c r="AD13" s="362"/>
-      <c r="AE13" s="363"/>
-      <c r="AF13" s="364"/>
-      <c r="AG13" s="500"/>
-      <c r="AH13" s="366"/>
-      <c r="AI13" s="367"/>
-      <c r="AJ13" s="368"/>
-      <c r="AK13" s="369"/>
-      <c r="AL13" s="370"/>
-      <c r="AM13" s="371"/>
-      <c r="AN13" s="372"/>
-      <c r="AO13" s="373"/>
-      <c r="AP13" s="374"/>
-      <c r="AQ13" s="375"/>
-      <c r="AR13" s="376"/>
-      <c r="AS13" s="377"/>
-      <c r="AT13" s="378"/>
-      <c r="AU13" s="379"/>
-      <c r="AV13" s="501"/>
-      <c r="AW13" s="502"/>
-      <c r="AX13" s="503"/>
-      <c r="AY13" s="383"/>
-      <c r="AZ13" s="384"/>
-      <c r="BA13" s="385"/>
-      <c r="BB13" s="386"/>
-      <c r="BC13" s="387"/>
-      <c r="BD13" s="388"/>
+      <c r="R13" s="342"/>
+      <c r="S13" s="343"/>
+      <c r="T13" s="344"/>
+      <c r="U13" s="345"/>
+      <c r="V13" s="346"/>
+      <c r="W13" s="347"/>
+      <c r="X13" s="348"/>
+      <c r="Y13" s="487"/>
+      <c r="Z13" s="488"/>
+      <c r="AA13" s="351"/>
+      <c r="AB13" s="352"/>
+      <c r="AC13" s="353"/>
+      <c r="AD13" s="354"/>
+      <c r="AE13" s="355"/>
+      <c r="AF13" s="356"/>
+      <c r="AG13" s="489"/>
+      <c r="AH13" s="358"/>
+      <c r="AI13" s="359"/>
+      <c r="AJ13" s="360"/>
+      <c r="AK13" s="361"/>
+      <c r="AL13" s="362"/>
+      <c r="AM13" s="363"/>
+      <c r="AN13" s="364"/>
+      <c r="AO13" s="365"/>
+      <c r="AP13" s="366"/>
+      <c r="AQ13" s="367"/>
+      <c r="AR13" s="368"/>
+      <c r="AS13" s="369"/>
+      <c r="AT13" s="370"/>
+      <c r="AU13" s="371"/>
+      <c r="AV13" s="490"/>
+      <c r="AW13" s="491"/>
+      <c r="AX13" s="492"/>
+      <c r="AY13" s="375"/>
+      <c r="AZ13" s="376"/>
+      <c r="BA13" s="377"/>
+      <c r="BB13" s="378"/>
+      <c r="BC13" s="379"/>
+      <c r="BD13" s="10"/>
       <c r="BE13" s="10"/>
       <c r="BF13" s="10"/>
       <c r="BG13" s="10"/>
@@ -2706,71 +2673,71 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="12">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s" s="12">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s" s="12">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E14" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="F14" s="389"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-      <c r="AF14" s="10"/>
-      <c r="AG14" s="10"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
-      <c r="AS14" s="10"/>
-      <c r="AT14" s="10"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="10"/>
-      <c r="AX14" s="10"/>
-      <c r="AY14" s="10"/>
-      <c r="AZ14" s="10"/>
-      <c r="BA14" s="10"/>
-      <c r="BB14" s="10"/>
-      <c r="BC14" s="10"/>
-      <c r="BD14" s="10"/>
+      <c r="L14" s="380"/>
+      <c r="M14" s="381"/>
+      <c r="N14" s="382"/>
+      <c r="O14" s="383"/>
+      <c r="P14" s="384"/>
+      <c r="Q14" s="385"/>
+      <c r="R14" s="386"/>
+      <c r="S14" s="387"/>
+      <c r="T14" s="388"/>
+      <c r="U14" s="389"/>
+      <c r="V14" s="390"/>
+      <c r="W14" s="391"/>
+      <c r="X14" s="392"/>
+      <c r="Y14" s="393"/>
+      <c r="Z14" s="394"/>
+      <c r="AA14" s="493"/>
+      <c r="AB14" s="396"/>
+      <c r="AC14" s="397"/>
+      <c r="AD14" s="398"/>
+      <c r="AE14" s="399"/>
+      <c r="AF14" s="494"/>
+      <c r="AG14" s="495"/>
+      <c r="AH14" s="402"/>
+      <c r="AI14" s="403"/>
+      <c r="AJ14" s="404"/>
+      <c r="AK14" s="405"/>
+      <c r="AL14" s="406"/>
+      <c r="AM14" s="407"/>
+      <c r="AN14" s="408"/>
+      <c r="AO14" s="409"/>
+      <c r="AP14" s="410"/>
+      <c r="AQ14" s="411"/>
+      <c r="AR14" s="412"/>
+      <c r="AS14" s="413"/>
+      <c r="AT14" s="414"/>
+      <c r="AU14" s="415"/>
+      <c r="AV14" s="416"/>
+      <c r="AW14" s="417"/>
+      <c r="AX14" s="496"/>
+      <c r="AY14" s="419"/>
+      <c r="AZ14" s="420"/>
+      <c r="BA14" s="421"/>
+      <c r="BB14" s="422"/>
+      <c r="BC14" s="423"/>
+      <c r="BD14" s="424"/>
       <c r="BE14" s="10"/>
       <c r="BF14" s="10"/>
       <c r="BG14" s="10"/>
@@ -2822,16 +2789,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="12">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s" s="12">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s" s="12">
         <v>16</v>
       </c>
       <c r="E15" t="s" s="12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -2839,52 +2806,52 @@
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="390"/>
-      <c r="M15" s="391"/>
-      <c r="N15" s="392"/>
-      <c r="O15" s="393"/>
-      <c r="P15" s="394"/>
-      <c r="Q15" s="395"/>
-      <c r="R15" s="396"/>
-      <c r="S15" s="397"/>
-      <c r="T15" s="398"/>
-      <c r="U15" s="399"/>
-      <c r="V15" s="400"/>
-      <c r="W15" s="401"/>
-      <c r="X15" s="402"/>
-      <c r="Y15" s="403"/>
-      <c r="Z15" s="404"/>
-      <c r="AA15" s="504"/>
-      <c r="AB15" s="406"/>
-      <c r="AC15" s="407"/>
-      <c r="AD15" s="408"/>
-      <c r="AE15" s="409"/>
-      <c r="AF15" s="505"/>
-      <c r="AG15" s="506"/>
-      <c r="AH15" s="412"/>
-      <c r="AI15" s="413"/>
-      <c r="AJ15" s="414"/>
-      <c r="AK15" s="415"/>
-      <c r="AL15" s="416"/>
-      <c r="AM15" s="417"/>
-      <c r="AN15" s="418"/>
-      <c r="AO15" s="419"/>
-      <c r="AP15" s="420"/>
-      <c r="AQ15" s="421"/>
-      <c r="AR15" s="422"/>
-      <c r="AS15" s="423"/>
-      <c r="AT15" s="424"/>
-      <c r="AU15" s="425"/>
-      <c r="AV15" s="426"/>
-      <c r="AW15" s="427"/>
-      <c r="AX15" s="507"/>
-      <c r="AY15" s="429"/>
-      <c r="AZ15" s="430"/>
-      <c r="BA15" s="431"/>
-      <c r="BB15" s="432"/>
-      <c r="BC15" s="433"/>
-      <c r="BD15" s="434"/>
-      <c r="BE15" s="435"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="10"/>
+      <c r="AK15" s="10"/>
+      <c r="AL15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10"/>
+      <c r="AQ15" s="10"/>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10"/>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="10"/>
+      <c r="AX15" s="10"/>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="10"/>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
       <c r="BF15" s="10"/>
       <c r="BG15" s="10"/>
       <c r="BH15" s="10"/>
